--- a/Manufacturing Files/bitaxeUltra BOM.xlsx
+++ b/Manufacturing Files/bitaxeUltra BOM.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10314"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skot/Work/Bitcoin/bitaxe/bitaxeUltra-v1.1/Manufacturing Files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB532DA-701D-3E4C-826C-954FA6D90D8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="31580" windowHeight="25320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="DK Order" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="186">
   <si>
     <t>Qty</t>
   </si>
@@ -564,30 +571,202 @@
   </si>
   <si>
     <t>SC32S-7PF20PPM</t>
+  </si>
+  <si>
+    <t>M1,M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15,M16,M17,M18,M19,M20,M21,M22,M23,M24,M25,M26,M27,M28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>XL-1010RGBC-WS2812B</t>
+  </si>
+  <si>
+    <t>CM1,CM2,CM3,CM4,CM5,CM6,CM7,CM8,CM9,CM10,CM11,CM12,CM13,CM14,CM15,CM16,CM17,CM18,CM19,CM20,CM21,CM22,CM23,CM24,CM25,CM26,CM27</t>
+  </si>
+  <si>
+    <t>VJ0402G104KXQCW1BC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,8 +779,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -609,25 +974,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,7 +1327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,26 +1360,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,23 +1395,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,26 +1565,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
+    <col min="2" max="5" width="30.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>9</v>
       </c>
@@ -1004,7 +1621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>23</v>
       </c>
@@ -1021,7 +1638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1038,7 +1655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1055,7 +1672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1072,7 +1689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1089,7 +1706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1106,7 +1723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1123,7 +1740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1140,7 +1757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1157,7 +1774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1174,7 +1791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1191,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1208,7 +1825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1225,7 +1842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1242,7 +1859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1259,7 +1876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1276,7 +1893,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1293,7 +1910,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1310,7 +1927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1327,7 +1944,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1344,7 +1961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1361,7 +1978,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1378,7 +1995,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1395,7 +2012,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1412,7 +2029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1429,7 +2046,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1446,7 +2063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1466,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1483,7 +2100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1500,7 +2117,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1517,7 +2134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1534,7 +2151,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1551,7 +2168,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1568,7 +2185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1585,7 +2202,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1602,7 +2219,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1619,7 +2236,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1636,7 +2253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1653,7 +2270,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1670,7 +2287,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1687,7 +2304,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1704,7 +2321,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1721,7 +2338,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1738,7 +2355,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1749,7 +2366,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1766,24 +2383,60 @@
         <v>180</v>
       </c>
     </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="4" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
+    <col min="2" max="4" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>9</v>
       </c>
@@ -1805,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>23</v>
       </c>
@@ -1816,7 +2469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1827,7 +2480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1838,7 +2491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1849,7 +2502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1860,7 +2513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1871,7 +2524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1882,7 +2535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1893,7 +2546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1904,7 +2557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1915,7 +2568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1926,7 +2579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1937,7 +2590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1948,7 +2601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1959,7 +2612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1970,7 +2623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1981,7 +2634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1992,7 +2645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2003,7 +2656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2014,7 +2667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2025,7 +2678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2036,7 +2689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2047,7 +2700,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2058,7 +2711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2069,7 +2722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2080,7 +2733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2091,7 +2744,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2102,7 +2755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2113,7 +2766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2124,7 +2777,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2135,7 +2788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2146,7 +2799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2157,7 +2810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2168,7 +2821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2179,7 +2832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2190,7 +2843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2201,7 +2854,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2212,7 +2865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2223,7 +2876,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2234,7 +2887,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2245,7 +2898,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2256,7 +2909,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2267,7 +2920,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2275,7 +2928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2286,7 +2939,27 @@
         <v>179</v>
       </c>
     </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>